--- a/resultado_itens.xlsx
+++ b/resultado_itens.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,135 +455,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -594,592 +594,592 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1190,41 +1190,41 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1243,33 +1243,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1280,41 +1280,41 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ANDADOR COM RODAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1325,41 +1325,41 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ANDADOR COM RODAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ANDADOR COM RODAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1370,11 +1370,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1385,41 +1385,41 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1430,37 +1430,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1475,7 +1475,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1483,14 +1483,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 48</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1498,18 +1498,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 48</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1520,41 +1520,41 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 48</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 45,5</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1588,33 +1588,33 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 45,5</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 45,5</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1625,41 +1625,41 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1670,41 +1670,41 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 46</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 46</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 46</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1738,14 +1738,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1760,7 +1760,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES ALUM 60 - 140KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1768,14 +1768,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES ALUM 60 - 140KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1783,14 +1783,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES ALUM 60 - 140KG</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1805,7 +1805,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1813,48 +1813,48 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1865,11 +1865,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1880,11 +1880,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1895,37 +1895,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 43</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 43</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 43</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1933,44 +1933,44 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1978,18 +1978,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2000,22 +2000,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2023,33 +2023,33 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 40</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 40</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 40</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2068,44 +2068,44 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 48</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 48</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 48</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2120,191 +2120,191 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 48</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 48</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 48</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2315,11 +2315,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2330,11 +2330,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2345,202 +2345,202 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA  ALT. TREM 2,10X 1,10</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA  ALT. TREM 2,10X 1,10</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA  ALT. TREM 2,10X 1,10</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ORTOPEDICA ALU 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ORTOPEDICA ALU 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2548,37 +2548,2692 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 46</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ANDADOR</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>8</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ANDADOR</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>9</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ANDADOR</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ANDADOR</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ANDADOR</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ARMÁRIO DE FÓRMICA</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>7</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ARMÁRIO DE FÓRMICA</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ARMÁRIO DE FÓRMICA</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ARMÁRIO DE FÓRMICA</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ARMÁRIO DE FÓRMICA</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>6</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>7</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>6</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>6</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>6</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>5</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>6</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>6</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>6</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>6</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>6</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>6</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>7</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>5</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>5</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>6</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>6</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>5</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>5</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>4</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>4</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>4</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>4</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>4</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>4</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>4</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>4</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>4</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>4</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>4</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>4</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>5</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>5</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>5</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>3</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ESCADA</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ESCADA</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>3</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ESCADA</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>3</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ESCADA</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ESCADA</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>3</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>3</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>COLCHAO BERCO</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>COLCHAO BERCO</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>COLCHAO BERCO</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>COLCHAO BERCO</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>COLCHAO BERCO</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>MULETAS CANADENSE</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>MULETAS CANADENSE</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>MULETAS CANADENSE</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>MULETAS CANADENSE</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2593,7 +5248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2616,51 +5271,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -2670,43 +5325,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 40</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 40</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2716,217 +5371,217 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 44</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANDADOR COM RODAS</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 48</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 45,5</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 46</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES ALUM 60 - 140KG</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2936,7 +5591,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS ALUM C1 ECONOMY OTTOBOCK 43</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2946,7 +5601,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2956,7 +5611,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2966,7 +5621,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 40</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2976,7 +5631,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINÁVEL ALUM 48</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2986,7 +5641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2996,7 +5651,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES AÇO 48</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3006,7 +5661,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3016,7 +5671,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3026,7 +5681,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3036,70 +5691,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA  ALT. TREM 2,10X 1,10</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CADEIRA DE RODAS ORTOPEDICA ALU 50</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CADEIRA DE RODAS SIMPLES ALUM 46</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MESA DE CABECEIRA</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3152,21 +5757,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRONEP</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3175,21 +5780,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRONEP</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -3198,21 +5803,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRONEP</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>

--- a/resultado_itens.xlsx
+++ b/resultado_itens.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,41 +455,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -500,101 +500,101 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113</v>
+        <v>318</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -605,300 +605,300 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1104,11 +1104,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1134,11 +1134,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1374,11 +1374,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1389,11 +1389,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1404,11 +1404,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1419,11 +1419,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1434,11 +1434,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1464,11 +1464,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1644,11 +1644,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1689,11 +1689,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1719,11 +1719,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1734,11 +1734,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1749,11 +1749,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1779,11 +1779,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1813,63 +1813,63 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1880,206 +1880,206 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2090,11 +2090,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2105,11 +2105,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2120,71 +2120,71 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2195,71 +2195,71 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2270,131 +2270,131 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2405,11 +2405,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2420,26 +2420,26 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2450,11 +2450,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2465,101 +2465,101 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2570,11 +2570,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2585,41 +2585,41 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2630,11 +2630,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2645,11 +2645,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2675,26 +2675,26 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2705,11 +2705,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2720,11 +2720,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2735,52 +2735,52 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2788,78 +2788,78 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2870,71 +2870,71 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2945,22 +2945,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2975,86 +2975,86 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3065,71 +3065,71 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3140,67 +3140,67 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3208,14 +3208,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -3230,71 +3230,71 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3305,86 +3305,86 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3395,82 +3395,82 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3478,29 +3478,29 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3508,63 +3508,63 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3575,11 +3575,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3590,11 +3590,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3605,11 +3605,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3620,101 +3620,101 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3725,41 +3725,41 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3770,86 +3770,86 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3860,11 +3860,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3875,146 +3875,146 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4025,41 +4025,41 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4070,101 +4070,101 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4175,37 +4175,37 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -4220,11 +4220,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4235,37 +4235,37 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -4273,108 +4273,108 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4385,41 +4385,41 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4430,52 +4430,52 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -4483,44 +4483,44 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -4528,78 +4528,78 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4610,11 +4610,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4625,26 +4625,26 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4655,11 +4655,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4670,176 +4670,176 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4850,41 +4850,41 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4895,11 +4895,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4918,29 +4918,29 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4948,198 +4948,198 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MULETAS CANADENSE</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MULETAS CANADENSE</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MULETAS CANADENSE</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MULETAS CANADENSE</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5150,37 +5150,37 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -5195,11 +5195,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -5225,15 +5225,3075 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>5</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>5</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>5</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>4</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>4</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>4</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>4</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>5</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>4</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>4</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>CADEIRA DE REPOUSO LUXO</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>6</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>8</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>3</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>4</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>4</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>4</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>TRANSFORMADOR</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>6</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>4</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>3</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>4</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>3</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>4</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>3</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>3</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>3</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>3</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>3</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>3</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>3</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS 50</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>2</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>2</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>3</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>4</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
           <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="B387" t="n">
+        <v>2</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>2</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>3</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>3</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>3</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>3</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>2</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>2</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>2</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>2</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>2</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>5</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>5</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>2</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>2</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>2</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>2</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>2</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>2</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>2</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>2</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>2</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>2</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>3</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>2</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>2</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>2</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>2</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>LIFITING ORTOBRAS - 180KG</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>LIFITING ORTOBRAS - 180KG</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>LIFITING ORTOBRAS - 180KG</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>LIFITING ORTOBRAS - 180KG</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 40</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 40</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 40</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>LIFITING VIKING M - 180KG</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>LIFITING VIKING M - 180KG</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIENICA ESTOFADA 50 JAGUARIBE</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5248,7 +8308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5271,11 +8331,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
@@ -5285,97 +8345,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -5385,326 +8445,556 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ESCADA</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
+          <t>TRANSFORMADOR</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COLCHAO BERCO</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CAMA ELÉTRICA ALT. TREM</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MULETAS CANADENSE</t>
+          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
         </is>
       </c>
       <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LIFITING ORTOBRAS - 180KG</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 40</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BERÇO MANUAL 3 MANIVELAS</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIENICA ESTOFADA 50 JAGUARIBE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LIFITING VIKING M - 180KG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5719,7 +9009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5757,21 +9047,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXX CARE</t>
+          <t>DOMMUS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -5780,21 +9070,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AXX CARE</t>
+          <t>DOMMUS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -5803,7 +9093,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXX CARE</t>
+          <t>DOMMUS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5813,13 +9103,151 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>228</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SUPORTE DE SORO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>140</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOLAR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>327</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SOLAR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SUPORTE DE SORO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>249</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SOLAR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>COLCHÃO PNEUMÁTICO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" t="n">
         <v>3</v>
       </c>
     </row>

--- a/resultado_itens.xlsx
+++ b/resultado_itens.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C524"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,101 +455,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -560,11 +560,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -575,30 +575,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -684,123 +684,123 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -808,97 +808,97 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -909,11 +909,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -969,11 +969,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -984,11 +984,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1029,11 +1029,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1044,11 +1044,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1059,11 +1059,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1104,11 +1104,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1134,11 +1134,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1179,11 +1179,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1194,11 +1194,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1224,11 +1224,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1239,11 +1239,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1254,11 +1254,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1284,11 +1284,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1299,11 +1299,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1329,11 +1329,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1359,11 +1359,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1374,11 +1374,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1464,11 +1464,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1509,11 +1509,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1524,11 +1524,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1554,11 +1554,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1569,11 +1569,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1644,11 +1644,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1659,11 +1659,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1674,11 +1674,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1689,11 +1689,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1719,11 +1719,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1734,11 +1734,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1749,11 +1749,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1779,11 +1779,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1809,11 +1809,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1824,11 +1824,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1839,11 +1839,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1929,11 +1929,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1959,11 +1959,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1974,11 +1974,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1989,11 +1989,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2004,11 +2004,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2079,11 +2079,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2094,11 +2094,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2109,11 +2109,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2124,11 +2124,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2139,11 +2139,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2154,11 +2154,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2169,11 +2169,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2214,11 +2214,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2229,11 +2229,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2244,11 +2244,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2259,11 +2259,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2274,11 +2274,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2289,11 +2289,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2304,11 +2304,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2319,67 +2319,67 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2390,11 +2390,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2405,116 +2405,116 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2525,11 +2525,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2540,37 +2540,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2578,44 +2578,44 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2623,14 +2623,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2653,108 +2653,108 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2765,15 +2765,15 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2784,11 +2784,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2799,11 +2799,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2829,11 +2829,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2844,11 +2844,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2859,11 +2859,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2874,11 +2874,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2919,11 +2919,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2934,11 +2934,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2953,18 +2953,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2975,11 +2975,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2990,11 +2990,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3005,41 +3005,41 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3050,191 +3050,191 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3245,116 +3245,116 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3365,11 +3365,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3380,116 +3380,116 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3500,116 +3500,116 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3620,172 +3620,172 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3793,59 +3793,59 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3853,59 +3853,59 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3913,123 +3913,123 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4040,11 +4040,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4055,11 +4055,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4070,11 +4070,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4085,26 +4085,26 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4115,11 +4115,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4130,41 +4130,41 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4175,82 +4175,82 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -4258,29 +4258,29 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -4295,11 +4295,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4310,116 +4310,116 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4430,187 +4430,187 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4618,33 +4618,33 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4655,11 +4655,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4670,97 +4670,97 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4768,18 +4768,18 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4805,22 +4805,22 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4828,29 +4828,29 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4858,14 +4858,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4873,29 +4873,29 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4903,18 +4903,18 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4940,116 +4940,116 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5060,71 +5060,71 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -5135,11 +5135,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5150,116 +5150,116 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5270,11 +5270,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5285,52 +5285,52 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -5338,14 +5338,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -5353,29 +5353,29 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -5383,18 +5383,18 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -5420,22 +5420,22 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -5443,93 +5443,93 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5540,127 +5540,127 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -5668,29 +5668,29 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5698,93 +5698,93 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5810,11 +5810,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5840,22 +5840,22 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5863,44 +5863,44 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5908,108 +5908,108 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -6020,11 +6020,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -6035,157 +6035,157 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -6193,48 +6193,48 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6245,11 +6245,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -6260,82 +6260,82 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -6343,14 +6343,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -6358,14 +6358,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -6373,14 +6373,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -6388,29 +6388,29 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -6418,14 +6418,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -6433,59 +6433,59 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -6493,14 +6493,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -6508,29 +6508,29 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -6538,29 +6538,29 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -6568,29 +6568,29 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -6598,59 +6598,59 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -6658,14 +6658,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -6673,33 +6673,33 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -6710,11 +6710,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -6725,41 +6725,41 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -6770,37 +6770,37 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -6808,14 +6808,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -6823,29 +6823,29 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6860,11 +6860,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -6875,67 +6875,67 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6943,74 +6943,74 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
+          <t>MULETAS CANADENSE</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -7018,14 +7018,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -7033,14 +7033,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -7048,14 +7048,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -7063,29 +7063,29 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -7093,59 +7093,59 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -7153,14 +7153,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -7168,14 +7168,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -7183,14 +7183,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -7198,18 +7198,18 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -7220,11 +7220,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -7235,11 +7235,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -7258,14 +7258,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -7273,14 +7273,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -7288,14 +7288,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -7303,14 +7303,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -7318,14 +7318,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -7333,14 +7333,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -7348,14 +7348,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -7363,14 +7363,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -7378,44 +7378,44 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -7423,14 +7423,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -7438,14 +7438,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -7453,14 +7453,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -7468,14 +7468,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -7490,7 +7490,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -7498,14 +7498,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -7513,14 +7513,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -7528,14 +7528,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -7543,14 +7543,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -7565,7 +7565,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -7580,7 +7580,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -7595,7 +7595,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -7610,7 +7610,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -7618,14 +7618,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -7633,14 +7633,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -7648,14 +7648,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -7663,14 +7663,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -7685,7 +7685,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -7700,7 +7700,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -7715,7 +7715,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -7730,7 +7730,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -7738,14 +7738,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -7753,14 +7753,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -7768,14 +7768,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -7783,14 +7783,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -7805,7 +7805,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -7820,7 +7820,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -7835,7 +7835,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -7850,7 +7850,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -7858,14 +7858,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -7873,14 +7873,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -7888,14 +7888,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -7903,14 +7903,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -7918,14 +7918,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -7933,14 +7933,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -7948,14 +7948,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -7963,14 +7963,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -7978,14 +7978,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 40</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -7993,14 +7993,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 40</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -8008,14 +8008,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>CADEIRA INF. RECLINAVEL 40</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -8023,14 +8023,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -8045,7 +8045,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -8060,7 +8060,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -8075,7 +8075,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -8083,14 +8083,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -8098,200 +8098,20 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
+          <t>(COMPL.) CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>BERÇO MANUAL 3 MANIVELAS</t>
-        </is>
-      </c>
-      <c r="B513" t="n">
-        <v>1</v>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>BERÇO MANUAL 3 MANIVELAS</t>
-        </is>
-      </c>
-      <c r="B514" t="n">
-        <v>1</v>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
-        </is>
-      </c>
-      <c r="B515" t="n">
-        <v>1</v>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
-        </is>
-      </c>
-      <c r="B516" t="n">
-        <v>1</v>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
-        </is>
-      </c>
-      <c r="B517" t="n">
-        <v>1</v>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>1</v>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>1</v>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>1</v>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>LIFITING VIKING M - 180KG</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>1</v>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>LIFITING VIKING M - 180KG</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>1</v>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>1</v>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIENICA ESTOFADA 50 JAGUARIBE</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>1</v>
-      </c>
-      <c r="C524" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -8308,7 +8128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8331,11 +8151,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -8345,397 +8165,397 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
+          <t>CADEIRA DE RODAS SIMPLES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS SIMPLES</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
+          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 44</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 2 MOVIMENTOS</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 44</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS RECLINAVEL</t>
+          <t>CAMA MANUAL 3 MANIVELAS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS</t>
+          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
+          <t>CADEIRA DE RODAS RECLINAVEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANDADOR</t>
+          <t>CADEIRA HIGIÊNICA DOBRÁVEL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ARMÁRIO DE FÓRMICA</t>
+          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
+          <t>BERÇO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
+          <t>ARMÁRIO DE FÓRMICA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
+          <t>CADEIRA DE REPOUSO SIMPLES</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 44</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
+          <t>ANDADOR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(COMPL.) CAMA MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 50</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL5M</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA DE REPOUSO LUXO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BERCO MANUAL 2 MANIVELAS</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 40</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA  INFANTIL - VANZETTI</t>
+          <t>COLCHÃO PNEUMÁTICO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO SIMPLES</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD ANTIGO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS</t>
+          <t>ESCADA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS 50</t>
+          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 44</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CADEIRA DE REPOUSO LUXO</t>
+          <t>CAMA MANUAL 3 MANIVELAS 1,90 X 0,80</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TRANSFORMADOR</t>
+          <t>BERCO MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
+          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAMA ELETRICA C/ ALTURA VARIAVEL E  TRENDELEMBURG HILL ROM CENTURIS P750</t>
+          <t>CAMA ELÉTRICA 3 MOVIMENTOS GRADE ABS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CH BANHO ENXUTA JUVENIL VANZETTI</t>
+          <t>CADEIRA DE RODAS 50</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIAVEL E TRENDELEMBURG HILL ROM BASIC</t>
+          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES FERRO 50</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,90 x 0,80</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BERÇO ELÉTRICO 2 MOVIMENTOS</t>
+          <t>CADEIRA INF. RECLINAVEL 30</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES C/ BRAÇO ESCAMOTEÁVEL INOX 44</t>
+          <t>COLCHAO BERCO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 3 MANIVELAS</t>
+          <t>CAMA MANUAL 2 MANIVELAS 1,80 X 0,90</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA C/ ALTURA VARIÁVEL E TRENDELEMBURG CENTURY</t>
+          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CAMA MANUAL 2 MANIVELAS 2,10Mts</t>
+          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE DESLIZANTE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA ALT. TREM</t>
+          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CADEIRA DE RODAS OBESO SIMPLES 60</t>
+          <t>BERCO ELETRICO 2 MOVIMENTOS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -8745,257 +8565,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CH-VANZETTI- RECLINAVEL  VASO</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>LIFITING FREEDOM COM BALANCA - 200KG</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>BERÇO MANUAL 2 MANIVELAS</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>COLCHÃO PNEUMÁTICO 220 WATS</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS GRADE ABS</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO FERRO 50</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>LIFITING ORTOBRAS - 180KG</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA ESTOFADA MOD NOVO INOX 65</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 44</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CAMA MANUAL 3 MANIVELAS 2,10 x 0,90</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  DELLAMED</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MESA DE REFEIÇÃO SIMPLES TOQUE</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>(COMPL.) CAMA MANUAL 3 MANIVELAS</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>CAMA MANUAL 2 MANIVELAS 1,55Mts x 0,70</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CADEIRA DE RODAS INFANTIL ALUMINIO MINI K</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>CADEIRA INF. RECLINAVEL 40</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>CAMA ELÉTRICA 5 MOVIMENTOS AL 565 STANDART</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MESA DE REFEIÇÃO DE MANIVELA</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>BERÇO MANUAL 3 MANIVELAS</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>CADEIRA INF. RECLINAVEL 30</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIENICA ESTOFADA 50 JAGUARIBE</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA SIMPLES INOX 65</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>COLCHAO PNEUMÁTICO  AIR TUBE - HORIZONTAL  SOLAR</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>LIFITING VIKING M - 180KG</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>CADEIRA HIGIÊNICA JAGUARIBE 50</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9009,7 +8579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9047,21 +8617,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DOMMUS</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SUPORTE DE SORO</t>
+          <t>CAMA MANUAL 2 MANIVELAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -9070,21 +8640,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DOMMUS</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
+          <t>SUPORTE DE SORO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -9093,7 +8663,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DOMMUS</t>
+          <t>AXX CARE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9103,151 +8673,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>228</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>168</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SUPORTE DE SORO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>140</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SOLAR</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CAMA ELÉTRICA 3 MOVIMENTOS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>327</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SOLAR</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SUPORTE DE SORO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>249</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SOLAR</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>COLCHÃO PNEUMÁTICO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>201</v>
-      </c>
-      <c r="E10" t="n">
         <v>3</v>
       </c>
     </row>
